--- a/report/reliability/comb/Instituto de Ciências Atmosféricas - ICAT-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Ciências Atmosféricas - ICAT-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -175,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="480">
+  <fonts count="481">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1016,11 +1019,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -1852,6 +1850,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,6 +2235,11 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3132,7 +3140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="802">
+  <cellXfs count="803">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3395,6 +3403,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3422,14 +3431,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3438,6 +3446,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3453,14 +3462,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3468,6 +3476,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3483,20 +3492,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3512,20 +3521,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3553,14 +3562,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3569,6 +3577,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3584,14 +3593,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3599,6 +3607,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3614,20 +3623,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3643,14 +3652,13 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3786,7 +3794,6 @@
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3814,13 +3821,14 @@
     <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3829,7 +3837,6 @@
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3845,13 +3852,14 @@
     <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3859,7 +3867,6 @@
     <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3875,20 +3882,20 @@
     <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3904,19 +3911,19 @@
     <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3944,13 +3951,14 @@
     <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3959,7 +3967,6 @@
     <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3975,13 +3982,14 @@
     <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3989,7 +3997,6 @@
     <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4005,20 +4012,20 @@
     <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4034,19 +4041,21 @@
     <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4122,31 +4131,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.6828643578643578</v>
+        <v>0.6324398120192182</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7114546015746012</v>
+        <v>0.6728424061218832</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.882852111942522</v>
+        <v>0.8738721930190414</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.17044913914623103</v>
+        <v>0.136593032374804</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>2.4656591491565316</v>
+        <v>2.0566308675462133</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.05997002635633766</v>
+        <v>0.06712617478493495</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.242424242424242</v>
+        <v>1.67016317016317</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6257862187747438</v>
+        <v>0.512522326791917</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.118699830902813</v>
+        <v>0.09320386661364716</v>
       </c>
     </row>
     <row r="7">
@@ -4196,28 +4205,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.6453075122366462</v>
+        <v>0.6320443419852905</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.6712383991810354</v>
+        <v>0.6639746254011821</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8582999355626654</v>
+        <v>0.8758809880511421</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.1565528251361417</v>
+        <v>0.14138312658856417</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.0417177599480625</v>
+        <v>1.9759657323316855</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.0674544344782114</v>
+        <v>0.06830918310356011</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.06634636347867832</v>
+        <v>0.10270668642717377</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.10591742577878875</v>
+        <v>0.106751304127183</v>
       </c>
     </row>
     <row r="12">
@@ -4225,28 +4234,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.6338832997987929</v>
+        <v>0.5961886917973632</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.6620575290769246</v>
+        <v>0.6308100634507149</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8554742490289968</v>
+        <v>0.8488188684081894</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.15117454301280017</v>
+        <v>0.12463918848382799</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>1.9590835306037229</v>
+        <v>1.7086328770137136</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.06973980686159849</v>
+        <v>0.07388634950417927</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.06563419263328467</v>
+        <v>0.10113597144449307</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.10109729876641581</v>
+        <v>0.08427829418837612</v>
       </c>
     </row>
     <row r="13">
@@ -4254,28 +4263,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.6457026156324308</v>
+        <v>0.5898875537143298</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.6721848828575275</v>
+        <v>0.6253033718061196</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8522858486709601</v>
+        <v>0.8482526637142661</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.15712041391788267</v>
+        <v>0.12208991157325508</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.0504999547210865</v>
+        <v>1.6688257239469129</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.06729491780174754</v>
+        <v>0.0751573830777205</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.06474181001486978</v>
+        <v>0.1026792448515255</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.12527419006722137</v>
+        <v>0.08427829418837612</v>
       </c>
     </row>
     <row r="14">
@@ -4283,28 +4292,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.6472550936920038</v>
+        <v>0.615862240917536</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.6771561099755323</v>
+        <v>0.636515618003506</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8537219157325406</v>
+        <v>0.8460961342855999</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.16014328832712912</v>
+        <v>0.12734570285995342</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.0974722796340104</v>
+        <v>1.7511498417273004</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.06713599106894487</v>
+        <v>0.07081244926687998</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.06339949965394659</v>
+        <v>0.07926378909884693</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.10758518247557727</v>
+        <v>0.09008726894322054</v>
       </c>
     </row>
     <row r="15">
@@ -4312,28 +4321,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.6699115544911084</v>
+        <v>0.5971358549485029</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.6984455412948072</v>
+        <v>0.6356617875519989</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8409860965039265</v>
+        <v>0.8433188831618103</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.17393544665073216</v>
+        <v>0.12693635921808405</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.3161506027593664</v>
+        <v>1.744702492996728</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.06199336994477399</v>
+        <v>0.07286900979713394</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.05645390434325086</v>
+        <v>0.07852049862778067</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.12527419006722137</v>
+        <v>0.09281381995864424</v>
       </c>
     </row>
     <row r="16">
@@ -4341,28 +4350,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.67665563529543</v>
+        <v>0.604928247830291</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7041306822644448</v>
+        <v>0.6413665768964592</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8443593942920342</v>
+        <v>0.8504547104251861</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.1778694762938943</v>
+        <v>0.12970086393985492</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.3798705714182526</v>
+        <v>1.7883625328230794</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.06081176608561533</v>
+        <v>0.07141578339970607</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.05495810881974334</v>
+        <v>0.07747482224425735</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.12527419006722137</v>
+        <v>0.09008726894322054</v>
       </c>
     </row>
     <row r="17">
@@ -4370,28 +4379,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7004136768838434</v>
+        <v>0.6359946484728856</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7296090671650306</v>
+        <v>0.7052939993719675</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8705674388339075</v>
+        <v>0.8794187210579507</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.1969835118750365</v>
+        <v>0.16627366955727627</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>2.6983488666402153</v>
+        <v>2.3932122110474587</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.0562821257658696</v>
+        <v>0.06740517942233759</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.05877899811733405</v>
+        <v>0.0837603285180175</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.13567267017937973</v>
+        <v>0.11057291287243806</v>
       </c>
     </row>
     <row r="18">
@@ -4399,28 +4408,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7058538103782913</v>
+        <v>0.656313016057425</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.727642104627594</v>
+        <v>0.689512833057543</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8712540219568821</v>
+        <v>0.868615055708863</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.19541471086570028</v>
+        <v>0.15616235477361032</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>2.6716394750835457</v>
+        <v>2.2207450306161323</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.054725517517505415</v>
+        <v>0.06084905258221669</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.0595515599825589</v>
+        <v>0.08950749047307933</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.1568925334073386</v>
+        <v>0.11057291287243806</v>
       </c>
     </row>
     <row r="19">
@@ -4428,28 +4437,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.6782591114057733</v>
+        <v>0.6605237244266197</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7079916125623094</v>
+        <v>0.6871048289257876</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8843250601571637</v>
+        <v>0.8679724952284387</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.18060624089958882</v>
+        <v>0.15468899473743694</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>2.424559166860855</v>
+        <v>2.195958558794187</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.06153324049418632</v>
+        <v>0.059119778666458817</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.07257321034789437</v>
+        <v>0.08978945470887391</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.13265166807109557</v>
+        <v>0.11057291287243806</v>
       </c>
     </row>
     <row r="20">
@@ -4457,28 +4466,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.6679897591503888</v>
+        <v>0.621216203277973</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7016395726939024</v>
+        <v>0.6667694573267076</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8787484844412932</v>
+        <v>0.8742709773023378</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.17613184558484446</v>
+        <v>0.14291379633529383</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>2.3516509177474387</v>
+        <v>2.0009254013082023</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.06332492735833506</v>
+        <v>0.06980930463266853</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.07323961721957108</v>
+        <v>0.10682931986316362</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.13265166807109557</v>
+        <v>0.10175780005232407</v>
       </c>
     </row>
     <row r="21">
@@ -4486,28 +4495,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.6431869349780577</v>
+        <v>0.6031172820760539</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.678387143267493</v>
+        <v>0.6554033607605718</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8570402191372432</v>
+        <v>0.8623366349115342</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.16090285968150558</v>
+        <v>0.1368113427237512</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.1093284334454436</v>
+        <v>1.9019435656921577</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.06794323223798161</v>
+        <v>0.0730489851506047</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.07024771292935406</v>
+        <v>0.10668326083541847</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.10758518247557727</v>
+        <v>0.08559631683754716</v>
       </c>
     </row>
     <row r="22">
@@ -4515,33 +4524,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.6412339612339613</v>
+        <v>0.5696524523380021</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.6745577941782691</v>
+        <v>0.62841299186535</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8564692499869608</v>
+        <v>0.8452743198999089</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.1585545075095165</v>
+        <v>0.12352202304854026</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.0727422015685786</v>
+        <v>1.691159750229038</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.0683709889011259</v>
+        <v>0.07958588278557602</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.06981824458666076</v>
+        <v>0.10338976636090011</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.10591742577878875</v>
+        <v>0.08837919963904659</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.5762226160401192</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.6278084221571096</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8449412117642653</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.1232420870330031</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>1.6867883625838533</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.0781827559600124</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.10362095231264269</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.08837919963904659</v>
       </c>
     </row>
     <row r="24">
@@ -4550,458 +4583,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>66.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.5763757437644959</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6195913972038373</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.5931561156714448</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.4675837139721092</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.242424242424242</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.0821716920598001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>66.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6349055747641003</v>
+        <v>0.24628831222062814</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6699531936728873</v>
+        <v>0.3965908453807933</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6499133577689736</v>
+        <v>0.31489673155871006</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5231039494637997</v>
+        <v>0.22170841976378916</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.6666666666666665</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2068182366911169</v>
+        <v>0.1727334068350122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>66.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5812484588855009</v>
+        <v>0.5133823045857709</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6142765420049813</v>
+        <v>0.5852598670806908</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.60657049078993</v>
+        <v>0.561152863444365</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4817198784912417</v>
+        <v>0.3785373534765039</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.393939393939394</v>
+        <v>3.242424242424242</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0058106241509936</v>
+        <v>1.0821716920598001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>66.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5626059525365881</v>
+        <v>0.5465730383673786</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5859705918412169</v>
+        <v>0.613984864614209</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.576343025110479</v>
+        <v>0.5894744907811585</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4184500815457331</v>
+        <v>0.39997119608621845</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.787878787878788</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.36455291652785</v>
+        <v>1.2068182366911169</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>66.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.4370066010271461</v>
+        <v>0.5114199787519064</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.45682194280555416</v>
+        <v>0.55476313349471</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.4792924388104951</v>
+        <v>0.5895498348934707</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.27796660187275346</v>
+        <v>0.4715541726970301</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.5151515151515151</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.3271418015062901</v>
+        <v>0.34580401903450975</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>66.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.3995702190385568</v>
+        <v>0.5215875813557241</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.4199840091218064</v>
+        <v>0.5593755767543228</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.4399074024367713</v>
+        <v>0.5944916395600794</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.2346708378488533</v>
+        <v>0.35347861276911985</v>
       </c>
       <c r="G32" t="n" s="89">
         <v>0.5151515151515151</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.3386839029713444</v>
+        <v>1.3271418015062901</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>66.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.2954747086741832</v>
+        <v>0.489492793706745</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.24100173419391668</v>
+        <v>0.5282254137473466</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.1935035580765848</v>
+        <v>0.5586633256351081</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.10201204169803371</v>
+        <v>0.31417353898359046</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.6515151515151514</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.483161117265046</v>
+        <v>1.3386839029713444</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>66.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.3281836001370346</v>
+        <v>0.1031877057261524</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.2556918592786051</v>
+        <v>0.11612669398991808</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.2065508026015603</v>
+        <v>0.054924444041530324</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.10892419057916981</v>
+        <v>0.05403762387842597</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.878787878787879</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6871929488413726</v>
+        <v>0.3288746085645837</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>66.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.41045424166144134</v>
+        <v>0.2901607421981623</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.3943571678935415</v>
+        <v>0.23005997876444503</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.3013114876335824</v>
+        <v>0.18850971659569585</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.23263755231543848</v>
+        <v>0.07041900005650935</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.2272727272727273</v>
+        <v>2.6515151515151514</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4443039797819524</v>
+        <v>1.483161117265046</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>66.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.44917813500810294</v>
+        <v>0.33898965400749437</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.4362550417862601</v>
+        <v>0.246661652450633</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3567120409091659</v>
+        <v>0.2043314116083132</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.2905850901345598</v>
+        <v>0.09078466459961253</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>1.9696969696969697</v>
+        <v>2.878787878787879</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3355459496711386</v>
+        <v>1.6871929488413726</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>66.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5817958104907287</v>
+        <v>0.4369587264368714</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5788580274432263</v>
+        <v>0.379343411601793</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5460207937004762</v>
+        <v>0.2915125218635384</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4523726915616294</v>
+        <v>0.23777284922181802</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.6515151515151516</v>
+        <v>1.2272727272727273</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.270886114154811</v>
+        <v>1.4443039797819524</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>66.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5932091705491159</v>
+        <v>0.4969298243593245</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6008478062259515</v>
+        <v>0.44810524920874667</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5695741495680612</v>
+        <v>0.38674416596041195</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4709091187156018</v>
+        <v>0.32330263656127467</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>1.9696969696969697</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3355459496711386</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>66.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6329589878724707</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.597847975591021</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5685255713896795</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4959897356995557</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.6515151515151516</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.270886114154811</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>66.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.607116051400031</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.601002266646064</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5727374629651746</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4697886390266402</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.4090909090909092</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2275964349056276</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.015151515151515152</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.4393939393939394</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.3787878787878788</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.3484848484848485</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.045454545454545456</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.0</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.030303030303030304</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.4393939393939394</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4090909090909091</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.07575757575757576</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5009,25 +5021,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.045454545454545456</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="C46" t="n" s="110">
+        <v>0.07575757575757576</v>
+      </c>
+      <c r="D46" t="n" s="111">
         <v>0.015151515151515152</v>
       </c>
-      <c r="D46" t="n" s="111">
-        <v>0.045454545454545456</v>
-      </c>
       <c r="E46" t="n" s="112">
-        <v>0.36363636363636365</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="F46" t="n" s="113">
+        <v>0.3787878787878788</v>
+      </c>
+      <c r="G46" t="n" s="114">
         <v>0.06060606060606061</v>
-      </c>
-      <c r="G46" t="n" s="114">
-        <v>0.4696969696969697</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5035,25 +5047,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8636363636363636</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="C47" t="n" s="110">
         <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.045454545454545456</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.07575757575757576</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.015151515151515152</v>
+        <v>0.3484848484848485</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5061,25 +5073,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8636363636363636</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.06060606060606061</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.045454545454545456</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.030303030303030304</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5087,25 +5099,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.12121212121212122</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="D49" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E49" t="n" s="112">
         <v>0.045454545454545456</v>
       </c>
-      <c r="E49" t="n" s="112">
-        <v>0.3181818181818182</v>
-      </c>
       <c r="F49" t="n" s="113">
-        <v>0.30303030303030304</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.045454545454545456</v>
+        <v>0.015151515151515152</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5113,25 +5125,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.12121212121212122</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.13636363636363635</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.15151515151515152</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.10606060606060606</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.30303030303030304</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.18181818181818182</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5139,22 +5151,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.5</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.12121212121212122</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.12121212121212122</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.16666666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.09090909090909091</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5165,25 +5177,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.21212121212121213</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.18181818181818182</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.10606060606060606</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.42424242424242425</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.07575757575757576</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5191,25 +5203,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.2727272727272727</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.12121212121212122</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.3787878787878788</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.13636363636363635</v>
+        <v>0.10606060606060606</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.09090909090909091</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5217,27 +5229,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.5</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.10606060606060606</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.07575757575757576</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.3787878787878788</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
         <v>0.3484848484848485</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="C57" t="n" s="110">
         <v>0.10606060606060606</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D57" t="n" s="111">
         <v>0.3939393939393939</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.09090909090909091</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.06060606060606061</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5268,7 +5358,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5317,31 +5407,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8445687066376723</v>
+        <v>0.8838021743097739</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8495018923586184</v>
+        <v>0.9925884195411754</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.867073517212672</v>
+        <v>0.9893460411094317</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5852602238548427</v>
+        <v>0.9780900335814486</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.644601820395484</v>
+        <v>133.92398895964868</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.03181868671887869</v>
+        <v>0.0028569921976555686</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.522727272727273</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.968471508583016</v>
+        <v>0.9967182618209086</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5395399145179955</v>
+        <v>0.9758619907770554</v>
       </c>
     </row>
     <row r="7">
@@ -5388,118 +5478,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8282545805207328</v>
+        <v>0.9868403562408614</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8366602168651044</v>
+        <v>0.9868590988981594</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.80573354065712</v>
+        <v>0.9740590847974864</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6306422727362356</v>
+        <v>0.9740590847974864</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>5.12220722231608</v>
+        <v>75.09828216878809</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.03611723951751281</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.025480353295326184</v>
-      </c>
+        <v>0.003237310973530622</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5636528628352918</v>
+        <v>0.9740590847974864</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7908674803836094</v>
+        <v>0.6418812619027905</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.7990587223838037</v>
+        <v>0.9877835550581893</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7780333808672615</v>
+        <v>0.9758619907770555</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5699897751073322</v>
+        <v>0.9758619907770554</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>3.9765782912460077</v>
+        <v>80.85687446414927</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.04428904242950226</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.045003221139054674</v>
-      </c>
+        <v>0.010581247620319175</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.4762830244582795</v>
+        <v>0.9758619907770554</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7893338581127621</v>
+        <v>0.6489744663038928</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7984106832687292</v>
+        <v>0.9921127913327361</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.757452887115346</v>
+        <v>0.9843490251698043</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5690014544324539</v>
+        <v>0.9843490251698042</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>3.9605803333966</v>
+        <v>125.7875673367864</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.04588514482878903</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.022773086765496137</v>
-      </c>
+        <v>0.008473359026817815</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5636528628352918</v>
+        <v>0.9843490251698043</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8014556735473095</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7999861632468186</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7487636256386092</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5714073931433489</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.999654105100774</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.041578945139800386</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.01750755649005456</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5154269662006992</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5508,283 +5568,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>66.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9894288785877365</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.994023383561049</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9907924351015394</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9865056098514702</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.34580401903450975</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>66.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7763317215085069</v>
+        <v>0.9937582102273235</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.7890206779111664</v>
+        <v>0.9934179771584652</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7012768065636398</v>
+        <v>0.9895521646944109</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6191504046571786</v>
+        <v>0.9800384821500939</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.242424242424242</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0821716920598001</v>
+        <v>1.3271418015062901</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>66.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.845728687416581</v>
+        <v>0.9928768384869221</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8438253550608742</v>
+        <v>0.9905680753784799</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7785718032854617</v>
+        <v>0.9817585616018225</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7074967244108812</v>
+        <v>0.9769422059011436</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.6666666666666665</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2068182366911169</v>
+        <v>1.3386839029713444</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>66.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8395781378346727</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8447183866362347</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8048877712581446</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7298224057214042</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.393939393939394</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0058106241509936</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>66.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8564449156981163</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8425444168996652</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8068421409815294</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.698716893631626</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.787878787878788</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.36455291652785</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.07575757575757576</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.015151515151515152</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="C27" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="226">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="E27" t="n" s="227">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="F27" t="n" s="228">
         <v>0.030303030303030304</v>
       </c>
-      <c r="C27" t="n" s="225">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="D27" t="n" s="226">
-        <v>0.015151515151515152</v>
-      </c>
-      <c r="E27" t="n" s="227">
-        <v>0.4393939393939394</v>
-      </c>
-      <c r="F27" t="n" s="228">
-        <v>0.3787878787878788</v>
-      </c>
       <c r="G27" t="n" s="229">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.3484848484848485</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.4393939393939394</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.015151515151515152</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.4696969696969697</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5814,8 +5805,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
-        <v>45</v>
+      <c r="A1" t="s" s="231">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5829,66 +5820,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.8499561741347712</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.8540071645666594</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.7452116088000923</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.7452116088000924</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>5.849651197141062</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.036263346783887894</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>2.765151515151515</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.4812149300481914</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.7452116088000925</v>
+      <c r="A6" t="n" s="260">
+        <v>0.7453416149068322</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.8666960001543518</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.8171632192344378</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.6842653767902833</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>6.501650371765992</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.026673156855862544</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>2.1363636363636362</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>1.0669507197541217</v>
+      </c>
+      <c r="I6" t="n" s="268">
+        <v>0.6690399755053906</v>
       </c>
     </row>
     <row r="7">
@@ -5902,86 +5893,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
+      <c r="B11" t="n" s="287">
+        <v>0.8499561741347712</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.8540071645666594</v>
+      </c>
+      <c r="D11" t="n" s="289">
+        <v>0.7452116088000923</v>
+      </c>
+      <c r="E11" t="n" s="290">
+        <v>0.7452116088000924</v>
+      </c>
+      <c r="F11" t="n" s="291">
+        <v>5.849651197141062</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.036263346783887894</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
         <v>0.7452116088000925</v>
       </c>
-      <c r="C11" t="n" s="289">
-        <v>0.7452116088000925</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.5553403418904217</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.7452116088000925</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7452116088000925</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.7452116088000925</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="A12" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.5553403418904217</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.7452116088000925</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5553403418904217</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.7452116088000925</v>
+      <c r="B12" t="n" s="287">
+        <v>0.3868668872486638</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.7794045607105431</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.6385445460653667</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.6385445460653667</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>3.533185288059552</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.04493991995577088</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.6385445460653667</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="282">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="287">
+        <v>0.44091016455397214</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.801706352542938</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.6690399755053906</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.6690399755053906</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>4.043025900345786</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.045080426167972185</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.6690399755053906</v>
       </c>
     </row>
     <row r="14">
@@ -5990,174 +6011,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="298">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="312">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B18" t="n" s="313">
         <v>66.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9250773920224177</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9341337186934461</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.8063969093103328</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7452116088000927</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C18" t="n" s="314">
+        <v>0.7493368710679461</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.8656801829357809</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.7466873746565159</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.6986298514898239</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.3288746085645837</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="313">
+        <v>66.0</v>
+      </c>
+      <c r="C19" t="n" s="314">
+        <v>0.9249121801888966</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.9056958623261786</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.8435272557159602</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.7718623653386892</v>
+      </c>
+      <c r="G19" t="n" s="318">
         <v>2.6515151515151514</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="319">
         <v>1.483161117265046</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="308">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="313">
+        <v>66.0</v>
+      </c>
+      <c r="C20" t="n" s="314">
+        <v>0.9380198676462501</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.8942556361114632</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.8194385908099815</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.7644068893556556</v>
+      </c>
+      <c r="G20" t="n" s="318">
+        <v>2.878787878787879</v>
+      </c>
+      <c r="H20" t="n" s="319">
+        <v>1.6871929488413726</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="323">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="337">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="337">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="337">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="337">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="337">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="337">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>66.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9426254672768345</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9341337186934461</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.8063969093103328</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.7452116088000927</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>2.878787878787879</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.6871929488413726</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="338">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="338">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s" s="338">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="338">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s" s="338">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="338">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="338">
         <v>0.12121212121212122</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="339">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="340">
         <v>0.045454545454545456</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="341">
         <v>0.3181818181818182</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="342">
         <v>0.30303030303030304</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="343">
         <v>0.045454545454545456</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="333">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="338">
         <v>0.12121212121212122</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="339">
         <v>0.13636363636363635</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="340">
         <v>0.15151515151515152</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="341">
         <v>0.10606060606060606</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="342">
         <v>0.30303030303030304</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="343">
         <v>0.18181818181818182</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6187,8 +6265,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
-        <v>46</v>
+      <c r="A1" t="s" s="346">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6202,66 +6280,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.8461405926946932</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.8464337033327127</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.7337538429981039</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.7337538429981039</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>5.511845513645317</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.03782836698438106</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>1.5303030303030303</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.1631482076303745</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.733753842998104</v>
+      <c r="A6" t="n" s="375">
+        <v>0.6979362101313321</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.8176541052347287</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.7637874565313174</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.5991492815502345</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>4.484082881532765</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.029786489762144663</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>2.6262626262626263</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>0.7430939053636171</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.5412150518919132</v>
       </c>
     </row>
     <row r="7">
@@ -6275,86 +6353,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.733753842998104</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.733753842998104</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.5383947021144859</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.733753842998104</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.733753842998104</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.733753842998104</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.836018174308137</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.8389051682549158</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.7225121887710679</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.7225121887710682</v>
+      </c>
+      <c r="F11" t="n" s="406">
+        <v>5.207523786873537</v>
+      </c>
+      <c r="G11" t="n" s="407">
+        <v>0.03987489377272506</v>
+      </c>
+      <c r="H11" s="408"/>
+      <c r="I11" t="n" s="409">
+        <v>0.722512188771068</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.5383947021144859</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.733753842998104</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.5383947021144859</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.733753842998104</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.26361655773420467</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.7023225619650504</v>
+      </c>
+      <c r="D12" t="n" s="404">
+        <v>0.5412150518919133</v>
+      </c>
+      <c r="E12" t="n" s="405">
+        <v>0.5412150518919132</v>
+      </c>
+      <c r="F12" t="n" s="406">
+        <v>2.359340924865767</v>
+      </c>
+      <c r="G12" t="n" s="407">
+        <v>0.04326324185506587</v>
+      </c>
+      <c r="H12" s="408"/>
+      <c r="I12" t="n" s="409">
+        <v>0.5412150518919132</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="397">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="402">
+        <v>0.28495339547270304</v>
+      </c>
+      <c r="C13" t="n" s="403">
+        <v>0.6959815270135012</v>
+      </c>
+      <c r="D13" t="n" s="404">
+        <v>0.533720603987722</v>
+      </c>
+      <c r="E13" t="n" s="405">
+        <v>0.5337206039877223</v>
+      </c>
+      <c r="F13" t="n" s="406">
+        <v>2.289273806872945</v>
+      </c>
+      <c r="G13" t="n" s="407">
+        <v>0.046994963072486795</v>
+      </c>
+      <c r="H13" s="408"/>
+      <c r="I13" t="n" s="409">
+        <v>0.5337206039877223</v>
       </c>
     </row>
     <row r="14">
@@ -6363,165 +6471,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="413">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="427">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="427">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+    <row r="18">
+      <c r="A18" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n" s="428">
         <v>66.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9335180597242047</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.931062254362753</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.7975426462304663</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7337538429981039</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.6515151515151516</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.270886114154811</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="C18" t="n" s="429">
+        <v>0.6295565609336735</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.8079801070772112</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.6284427227199141</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.5792252228072078</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>0.1727334068350122</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="428">
         <v>66.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9285635274202687</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.931062254362753</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.7975426462304667</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.7337538429981042</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>1.4090909090909092</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.2275964349056276</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="C19" t="n" s="429">
+        <v>0.9179207549925401</v>
+      </c>
+      <c r="D19" t="n" s="430">
+        <v>0.8785772263918878</v>
+      </c>
+      <c r="E19" t="n" s="431">
+        <v>0.8051558032007652</v>
+      </c>
+      <c r="F19" t="n" s="432">
+        <v>0.736883663415242</v>
+      </c>
+      <c r="G19" t="n" s="433">
+        <v>3.242424242424242</v>
+      </c>
+      <c r="H19" t="n" s="434">
+        <v>1.0821716920598001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="423">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="428">
+        <v>66.0</v>
+      </c>
+      <c r="C20" t="n" s="429">
+        <v>0.9340167190453712</v>
+      </c>
+      <c r="D20" t="n" s="430">
+        <v>0.8814955649933544</v>
+      </c>
+      <c r="E20" t="n" s="431">
+        <v>0.8107496210077046</v>
+      </c>
+      <c r="F20" t="n" s="432">
+        <v>0.7396979732650649</v>
+      </c>
+      <c r="G20" t="n" s="433">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="H20" t="n" s="434">
+        <v>1.2068182366911169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="438">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="452">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="452">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="D23" t="n" s="456">
+      <c r="H24" t="s" s="452">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="453">
+        <v>0.030303030303030304</v>
+      </c>
+      <c r="C25" t="n" s="454">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="D25" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="453">
+        <v>0.030303030303030304</v>
+      </c>
+      <c r="C26" t="n" s="454">
+        <v>0.07575757575757576</v>
+      </c>
+      <c r="D26" t="n" s="455">
+        <v>0.015151515151515152</v>
+      </c>
+      <c r="E26" t="n" s="456">
+        <v>0.4393939393939394</v>
+      </c>
+      <c r="F26" t="n" s="457">
         <v>0.3787878787878788</v>
       </c>
-      <c r="E23" t="n" s="457">
+      <c r="G26" t="n" s="458">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="H26" t="n" s="459">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="448">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="453">
+        <v>0.030303030303030304</v>
+      </c>
+      <c r="C27" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="455">
+        <v>0.07575757575757576</v>
+      </c>
+      <c r="E27" t="n" s="456">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="F27" t="n" s="457">
         <v>0.13636363636363635</v>
       </c>
-      <c r="F23" t="n" s="458">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
+      <c r="G27" t="n" s="458">
         <v>0.3484848484848485</v>
       </c>
-      <c r="C24" t="n" s="455">
-        <v>0.10606060606060606</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="H27" t="n" s="459">
         <v>0.0</v>
       </c>
     </row>
@@ -6552,7 +6726,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="461">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6601,31 +6775,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9868403562408614</v>
+        <v>0.6492819657459015</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.9868590988981594</v>
+        <v>0.6506250745861357</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.9740590847974864</v>
+        <v>0.4821677521438926</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.9740590847974864</v>
+        <v>0.4821677521438925</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>75.09828216878809</v>
+        <v>1.8622546360916277</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.003237310973530622</v>
+        <v>0.08599743280228792</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>0.5151515151515151</v>
+        <v>1.5984848484848484</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>1.3242405573056029</v>
+        <v>1.1968538789088699</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.9740590847974864</v>
+        <v>0.48216775214389246</v>
       </c>
     </row>
     <row r="7">
@@ -6672,48 +6846,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.9740590847974865</v>
+        <v>0.48216775214389246</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.9740590847974865</v>
+        <v>0.48216775214389246</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.9487911006765168</v>
+        <v>0.23248574120749432</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.9740590847974865</v>
+        <v>0.48216775214389246</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.9740590847974865</v>
+        <v>0.48216775214389246</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.9740590847974865</v>
+        <v>0.48216775214389246</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.9487911006765168</v>
+        <v>0.23248574120749432</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.9740590847974865</v>
+        <v>0.48216775214389246</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.9487911006765168</v>
+        <v>0.23248574120749432</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.9740590847974865</v>
+        <v>0.48216775214389246</v>
       </c>
     </row>
     <row r="13">
@@ -6728,25 +6902,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="528">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="542">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="542">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="542">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="542">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="542">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="542">
         <v>9</v>
@@ -6757,54 +6931,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>66.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9934369568853533</v>
+        <v>0.8723960397419445</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9934936046088788</v>
+        <v>0.8608622863570842</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.9805228670138201</v>
+        <v>0.5977681378893437</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.9740590847974864</v>
+        <v>0.4821677521438925</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>0.5151515151515151</v>
+        <v>1.2272727272727273</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>1.3271418015062901</v>
+        <v>1.4443039797819524</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>66.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9935500075972168</v>
+        <v>0.8488683492706447</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.9934936046088788</v>
+        <v>0.8608622863570842</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.9805228670138201</v>
+        <v>0.5977681378893435</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.9740590847974864</v>
+        <v>0.4821677521438925</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>0.5151515151515151</v>
+        <v>1.9696969696969697</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>1.3386839029713444</v>
+        <v>1.3355459496711386</v>
       </c>
     </row>
     <row r="19">
@@ -6819,64 +6993,73 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="553">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="567">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="567">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s" s="567">
         <v>40</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="E22" t="s" s="567">
         <v>41</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="F22" t="s" s="567">
         <v>42</v>
       </c>
-      <c r="F22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="567">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.8636363636363636</v>
+        <v>0.5</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.045454545454545456</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="D23" t="n" s="570">
-        <v>0.07575757575757576</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.015151515151515152</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F23" t="n" s="572">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G23" t="n" s="573">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.8636363636363636</v>
+        <v>0.21212121212121213</v>
       </c>
       <c r="C24" t="n" s="569">
-        <v>0.06060606060606061</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="D24" t="n" s="570">
-        <v>0.045454545454545456</v>
+        <v>0.10606060606060606</v>
       </c>
       <c r="E24" t="n" s="571">
-        <v>0.030303030303030304</v>
+        <v>0.42424242424242425</v>
       </c>
       <c r="F24" t="n" s="572">
+        <v>0.07575757575757576</v>
+      </c>
+      <c r="G24" t="n" s="573">
         <v>0.0</v>
       </c>
     </row>
@@ -6906,8 +7089,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="574">
-        <v>48</v>
+      <c r="A1" t="s" s="575">
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6921,66 +7104,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="588">
+      <c r="A4" t="s" s="589">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="602">
+      <c r="A5" t="s" s="603">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="602">
+      <c r="B5" t="s" s="603">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="602">
+      <c r="C5" t="s" s="603">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="602">
+      <c r="D5" t="s" s="603">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="602">
+      <c r="E5" t="s" s="603">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="602">
+      <c r="F5" t="s" s="603">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="602">
+      <c r="G5" t="s" s="603">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="602">
+      <c r="H5" t="s" s="603">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="602">
+      <c r="I5" t="s" s="603">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="603">
-        <v>0.6492819657459015</v>
-      </c>
-      <c r="B6" t="n" s="604">
-        <v>0.6506250745861357</v>
-      </c>
-      <c r="C6" t="n" s="605">
-        <v>0.4821677521438926</v>
-      </c>
-      <c r="D6" t="n" s="606">
-        <v>0.4821677521438925</v>
-      </c>
-      <c r="E6" t="n" s="607">
-        <v>1.8622546360916277</v>
-      </c>
-      <c r="F6" t="n" s="608">
-        <v>0.08599743280228792</v>
-      </c>
-      <c r="G6" t="n" s="609">
-        <v>1.5984848484848484</v>
-      </c>
-      <c r="H6" t="n" s="610">
-        <v>1.1968538789088699</v>
-      </c>
-      <c r="I6" t="n" s="611">
-        <v>0.48216775214389246</v>
+      <c r="A6" t="n" s="604">
+        <v>0.8461405926946932</v>
+      </c>
+      <c r="B6" t="n" s="605">
+        <v>0.8464337033327127</v>
+      </c>
+      <c r="C6" t="n" s="606">
+        <v>0.7337538429981039</v>
+      </c>
+      <c r="D6" t="n" s="607">
+        <v>0.7337538429981039</v>
+      </c>
+      <c r="E6" t="n" s="608">
+        <v>5.511845513645317</v>
+      </c>
+      <c r="F6" t="n" s="609">
+        <v>0.03782836698438106</v>
+      </c>
+      <c r="G6" t="n" s="610">
+        <v>1.5303030303030303</v>
+      </c>
+      <c r="H6" t="n" s="611">
+        <v>1.1631482076303745</v>
+      </c>
+      <c r="I6" t="n" s="612">
+        <v>0.733753842998104</v>
       </c>
     </row>
     <row r="7">
@@ -6994,81 +7177,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="615">
+      <c r="A9" t="s" s="616">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="629">
+      <c r="B10" t="s" s="630">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="629">
+      <c r="C10" t="s" s="630">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="629">
+      <c r="D10" t="s" s="630">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="629">
+      <c r="E10" t="s" s="630">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="629">
+      <c r="F10" t="s" s="630">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="629">
+      <c r="G10" t="s" s="630">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="629">
+      <c r="H10" t="s" s="630">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="629">
+      <c r="I10" t="s" s="630">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="625">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="630">
-        <v>0.48216775214389246</v>
-      </c>
-      <c r="C11" t="n" s="631">
-        <v>0.48216775214389246</v>
-      </c>
-      <c r="D11" t="n" s="632">
-        <v>0.23248574120749432</v>
-      </c>
-      <c r="E11" t="n" s="633">
-        <v>0.48216775214389246</v>
-      </c>
-      <c r="F11" s="634"/>
-      <c r="G11" s="635"/>
-      <c r="H11" t="n" s="636">
-        <v>0.48216775214389246</v>
-      </c>
-      <c r="I11" t="n" s="637">
-        <v>0.48216775214389246</v>
+      <c r="A11" t="s" s="626">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n" s="631">
+        <v>0.733753842998104</v>
+      </c>
+      <c r="C11" t="n" s="632">
+        <v>0.733753842998104</v>
+      </c>
+      <c r="D11" t="n" s="633">
+        <v>0.5383947021144859</v>
+      </c>
+      <c r="E11" t="n" s="634">
+        <v>0.733753842998104</v>
+      </c>
+      <c r="F11" s="635"/>
+      <c r="G11" s="636"/>
+      <c r="H11" t="n" s="637">
+        <v>0.733753842998104</v>
+      </c>
+      <c r="I11" t="n" s="638">
+        <v>0.733753842998104</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="625">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="630">
-        <v>0.23248574120749432</v>
-      </c>
-      <c r="C12" t="n" s="631">
-        <v>0.48216775214389246</v>
-      </c>
-      <c r="D12" s="632"/>
-      <c r="E12" s="633"/>
-      <c r="F12" s="634"/>
-      <c r="G12" s="635"/>
-      <c r="H12" t="n" s="636">
-        <v>0.23248574120749432</v>
-      </c>
-      <c r="I12" t="n" s="637">
-        <v>0.48216775214389246</v>
+      <c r="A12" t="s" s="626">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n" s="631">
+        <v>0.5383947021144859</v>
+      </c>
+      <c r="C12" t="n" s="632">
+        <v>0.733753842998104</v>
+      </c>
+      <c r="D12" s="633"/>
+      <c r="E12" s="634"/>
+      <c r="F12" s="635"/>
+      <c r="G12" s="636"/>
+      <c r="H12" t="n" s="637">
+        <v>0.5383947021144859</v>
+      </c>
+      <c r="I12" t="n" s="638">
+        <v>0.733753842998104</v>
       </c>
     </row>
     <row r="13">
@@ -7082,84 +7265,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="641">
-        <v>30</v>
+      <c r="A15" t="s" s="642">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="655">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="655">
+      <c r="B16" t="s" s="656">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="655">
+      <c r="C16" t="s" s="656">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="655">
+      <c r="D16" t="s" s="656">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="655">
+      <c r="E16" t="s" s="656">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="655">
+      <c r="F16" t="s" s="656">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="656">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="655">
+      <c r="H16" t="s" s="656">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="651">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="656">
+      <c r="A17" t="s" s="652">
+        <v>29</v>
+      </c>
+      <c r="B17" t="n" s="657">
         <v>66.0</v>
       </c>
-      <c r="C17" t="n" s="657">
-        <v>0.8723960397419445</v>
-      </c>
-      <c r="D17" t="n" s="658">
-        <v>0.8608622863570842</v>
-      </c>
-      <c r="E17" t="n" s="659">
-        <v>0.5977681378893437</v>
-      </c>
-      <c r="F17" t="n" s="660">
-        <v>0.4821677521438925</v>
-      </c>
-      <c r="G17" t="n" s="661">
-        <v>1.2272727272727273</v>
-      </c>
-      <c r="H17" t="n" s="662">
-        <v>1.4443039797819524</v>
+      <c r="C17" t="n" s="658">
+        <v>0.9335180597242047</v>
+      </c>
+      <c r="D17" t="n" s="659">
+        <v>0.931062254362753</v>
+      </c>
+      <c r="E17" t="n" s="660">
+        <v>0.7975426462304663</v>
+      </c>
+      <c r="F17" t="n" s="661">
+        <v>0.7337538429981039</v>
+      </c>
+      <c r="G17" t="n" s="662">
+        <v>1.6515151515151516</v>
+      </c>
+      <c r="H17" t="n" s="663">
+        <v>1.270886114154811</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="651">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="656">
+      <c r="A18" t="s" s="652">
+        <v>30</v>
+      </c>
+      <c r="B18" t="n" s="657">
         <v>66.0</v>
       </c>
-      <c r="C18" t="n" s="657">
-        <v>0.8488683492706447</v>
-      </c>
-      <c r="D18" t="n" s="658">
-        <v>0.8608622863570842</v>
-      </c>
-      <c r="E18" t="n" s="659">
-        <v>0.5977681378893435</v>
-      </c>
-      <c r="F18" t="n" s="660">
-        <v>0.4821677521438925</v>
-      </c>
-      <c r="G18" t="n" s="661">
-        <v>1.9696969696969697</v>
-      </c>
-      <c r="H18" t="n" s="662">
-        <v>1.3355459496711386</v>
+      <c r="C18" t="n" s="658">
+        <v>0.9285635274202687</v>
+      </c>
+      <c r="D18" t="n" s="659">
+        <v>0.931062254362753</v>
+      </c>
+      <c r="E18" t="n" s="660">
+        <v>0.7975426462304667</v>
+      </c>
+      <c r="F18" t="n" s="661">
+        <v>0.7337538429981042</v>
+      </c>
+      <c r="G18" t="n" s="662">
+        <v>1.4090909090909092</v>
+      </c>
+      <c r="H18" t="n" s="663">
+        <v>1.2275964349056276</v>
       </c>
     </row>
     <row r="19">
@@ -7173,74 +7356,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="666">
-        <v>36</v>
+      <c r="A21" t="s" s="667">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="680">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="680">
+      <c r="B22" t="s" s="681">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="680">
+      <c r="C22" t="s" s="681">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="680">
+      <c r="D22" t="s" s="681">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="680">
+      <c r="E22" t="s" s="681">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="680">
-        <v>43</v>
+      <c r="F22" t="s" s="681">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="681">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="676">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="681">
-        <v>0.5</v>
-      </c>
-      <c r="C23" t="n" s="682">
+      <c r="A23" t="s" s="677">
+        <v>29</v>
+      </c>
+      <c r="B23" t="n" s="682">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="C23" t="n" s="683">
         <v>0.12121212121212122</v>
       </c>
-      <c r="D23" t="n" s="683">
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="E23" t="n" s="684">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F23" t="n" s="685">
+      <c r="D23" t="n" s="684">
+        <v>0.3787878787878788</v>
+      </c>
+      <c r="E23" t="n" s="685">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="F23" t="n" s="686">
         <v>0.09090909090909091</v>
       </c>
-      <c r="G23" t="n" s="686">
+      <c r="G23" t="n" s="687">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="676">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="681">
-        <v>0.21212121212121213</v>
-      </c>
-      <c r="C24" t="n" s="682">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="D24" t="n" s="683">
+      <c r="A24" t="s" s="677">
+        <v>30</v>
+      </c>
+      <c r="B24" t="n" s="682">
+        <v>0.3484848484848485</v>
+      </c>
+      <c r="C24" t="n" s="683">
         <v>0.10606060606060606</v>
       </c>
-      <c r="E24" t="n" s="684">
-        <v>0.42424242424242425</v>
-      </c>
-      <c r="F24" t="n" s="685">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="G24" t="n" s="686">
+      <c r="D24" t="n" s="684">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="E24" t="n" s="685">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="F24" t="n" s="686">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="G24" t="n" s="687">
         <v>0.0</v>
       </c>
     </row>
@@ -7270,8 +7453,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="688">
-        <v>49</v>
+      <c r="A1" t="s" s="689">
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7285,66 +7468,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="702">
+      <c r="A4" t="s" s="703">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="716">
+      <c r="A5" t="s" s="717">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="716">
+      <c r="B5" t="s" s="717">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="716">
+      <c r="C5" t="s" s="717">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="716">
+      <c r="D5" t="s" s="717">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="716">
+      <c r="E5" t="s" s="717">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="716">
+      <c r="F5" t="s" s="717">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="716">
+      <c r="G5" t="s" s="717">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="716">
+      <c r="H5" t="s" s="717">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="716">
+      <c r="I5" t="s" s="717">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="717">
-        <v>0.7564378207575507</v>
-      </c>
-      <c r="B6" t="n" s="718">
-        <v>0.7655620090445179</v>
-      </c>
-      <c r="C6" t="n" s="719">
-        <v>0.8922414359357214</v>
-      </c>
-      <c r="D6" t="n" s="720">
-        <v>0.24616601501976368</v>
-      </c>
-      <c r="E6" t="n" s="721">
-        <v>3.2655202594271144</v>
-      </c>
-      <c r="F6" t="n" s="722">
-        <v>0.04643604096563467</v>
-      </c>
-      <c r="G6" t="n" s="723">
-        <v>2.1378787878787877</v>
-      </c>
-      <c r="H6" t="n" s="724">
-        <v>0.7090112620381779</v>
-      </c>
-      <c r="I6" t="n" s="725">
-        <v>0.17499570075948678</v>
+      <c r="A6" t="n" s="718">
+        <v>0.7485727335007993</v>
+      </c>
+      <c r="B6" t="n" s="719">
+        <v>0.788760913161531</v>
+      </c>
+      <c r="C6" t="n" s="720">
+        <v>0.8969971264971511</v>
+      </c>
+      <c r="D6" t="n" s="721">
+        <v>0.2718785408535731</v>
+      </c>
+      <c r="E6" t="n" s="722">
+        <v>3.733972367361552</v>
+      </c>
+      <c r="F6" t="n" s="723">
+        <v>0.0450236030119646</v>
+      </c>
+      <c r="G6" t="n" s="724">
+        <v>1.5303030303030303</v>
+      </c>
+      <c r="H6" t="n" s="725">
+        <v>0.638982291067889</v>
+      </c>
+      <c r="I6" t="n" s="726">
+        <v>0.18389908958492687</v>
       </c>
     </row>
     <row r="7">
@@ -7358,325 +7541,325 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="729">
+      <c r="A9" t="s" s="730">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="743">
+      <c r="B10" t="s" s="744">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="743">
+      <c r="C10" t="s" s="744">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="743">
+      <c r="D10" t="s" s="744">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="743">
+      <c r="E10" t="s" s="744">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="743">
+      <c r="F10" t="s" s="744">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="743">
+      <c r="G10" t="s" s="744">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="743">
+      <c r="H10" t="s" s="744">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="743">
+      <c r="I10" t="s" s="744">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="739">
+      <c r="A11" t="s" s="740">
+        <v>21</v>
+      </c>
+      <c r="B11" t="n" s="745">
+        <v>0.73336826448516</v>
+      </c>
+      <c r="C11" t="n" s="746">
+        <v>0.7518799196642436</v>
+      </c>
+      <c r="D11" t="n" s="747">
+        <v>0.8666643204197289</v>
+      </c>
+      <c r="E11" t="n" s="748">
+        <v>0.25188939140840927</v>
+      </c>
+      <c r="F11" t="n" s="749">
+        <v>3.0303066106007974</v>
+      </c>
+      <c r="G11" t="n" s="750">
+        <v>0.04886033527136909</v>
+      </c>
+      <c r="H11" t="n" s="751">
+        <v>0.04628027464595065</v>
+      </c>
+      <c r="I11" t="n" s="752">
+        <v>0.17944739517220681</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="740">
+        <v>22</v>
+      </c>
+      <c r="B12" t="n" s="745">
+        <v>0.7016782495220176</v>
+      </c>
+      <c r="C12" t="n" s="746">
+        <v>0.7500355999507394</v>
+      </c>
+      <c r="D12" t="n" s="747">
+        <v>0.8636667245215768</v>
+      </c>
+      <c r="E12" t="n" s="748">
+        <v>0.25003560333067765</v>
+      </c>
+      <c r="F12" t="n" s="749">
+        <v>3.0005696803341984</v>
+      </c>
+      <c r="G12" t="n" s="750">
+        <v>0.0531354981715397</v>
+      </c>
+      <c r="H12" t="n" s="751">
+        <v>0.046464492431815406</v>
+      </c>
+      <c r="I12" t="n" s="752">
+        <v>0.17944739517220681</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="740">
+        <v>23</v>
+      </c>
+      <c r="B13" t="n" s="745">
+        <v>0.7044894658888252</v>
+      </c>
+      <c r="C13" t="n" s="746">
+        <v>0.7518999535195227</v>
+      </c>
+      <c r="D13" t="n" s="747">
+        <v>0.8691249655594685</v>
+      </c>
+      <c r="E13" t="n" s="748">
+        <v>0.25190962873508593</v>
+      </c>
+      <c r="F13" t="n" s="749">
+        <v>3.030632054229336</v>
+      </c>
+      <c r="G13" t="n" s="750">
+        <v>0.052612533722966925</v>
+      </c>
+      <c r="H13" t="n" s="751">
+        <v>0.0470327007556193</v>
+      </c>
+      <c r="I13" t="n" s="752">
+        <v>0.17944739517220681</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="740">
         <v>18</v>
       </c>
-      <c r="B11" t="n" s="744">
-        <v>0.7223918639277243</v>
-      </c>
-      <c r="C11" t="n" s="745">
-        <v>0.7293129495165156</v>
-      </c>
-      <c r="D11" t="n" s="746">
-        <v>0.8678820451116435</v>
-      </c>
-      <c r="E11" t="n" s="747">
-        <v>0.23039449630250042</v>
-      </c>
-      <c r="F11" t="n" s="748">
-        <v>2.6943030640507626</v>
-      </c>
-      <c r="G11" t="n" s="749">
-        <v>0.05316192661462768</v>
-      </c>
-      <c r="H11" t="n" s="750">
-        <v>0.056278549790572376</v>
-      </c>
-      <c r="I11" t="n" s="751">
-        <v>0.16729870271841019</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="739">
+      <c r="B14" t="n" s="745">
+        <v>0.7521099744245524</v>
+      </c>
+      <c r="C14" t="n" s="746">
+        <v>0.7877875166124684</v>
+      </c>
+      <c r="D14" t="n" s="747">
+        <v>0.9009634983237103</v>
+      </c>
+      <c r="E14" t="n" s="748">
+        <v>0.2920219280950842</v>
+      </c>
+      <c r="F14" t="n" s="749">
+        <v>3.712258129385588</v>
+      </c>
+      <c r="G14" t="n" s="750">
+        <v>0.04621608782575844</v>
+      </c>
+      <c r="H14" t="n" s="751">
+        <v>0.067809122547484</v>
+      </c>
+      <c r="I14" t="n" s="752">
+        <v>0.19864063888788908</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="740">
         <v>19</v>
       </c>
-      <c r="B12" t="n" s="744">
-        <v>0.7189563306942226</v>
-      </c>
-      <c r="C12" t="n" s="745">
-        <v>0.7263259324881011</v>
-      </c>
-      <c r="D12" t="n" s="746">
-        <v>0.8653164195785116</v>
-      </c>
-      <c r="E12" t="n" s="747">
-        <v>0.22773174620469364</v>
-      </c>
-      <c r="F12" t="n" s="748">
-        <v>2.653981574109216</v>
-      </c>
-      <c r="G12" t="n" s="749">
-        <v>0.053772018821670445</v>
-      </c>
-      <c r="H12" t="n" s="750">
-        <v>0.05355020680265355</v>
-      </c>
-      <c r="I12" t="n" s="751">
+      <c r="B15" t="n" s="745">
+        <v>0.7236256741588414</v>
+      </c>
+      <c r="C15" t="n" s="746">
+        <v>0.766379294015637</v>
+      </c>
+      <c r="D15" t="n" s="747">
+        <v>0.8756773784618792</v>
+      </c>
+      <c r="E15" t="n" s="748">
+        <v>0.26712738599129204</v>
+      </c>
+      <c r="F15" t="n" s="749">
+        <v>3.2804425052415214</v>
+      </c>
+      <c r="G15" t="n" s="750">
+        <v>0.049025037762959266</v>
+      </c>
+      <c r="H15" t="n" s="751">
+        <v>0.06950694754575854</v>
+      </c>
+      <c r="I15" t="n" s="752">
         <v>0.1709463209929582</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="739">
+    <row r="16">
+      <c r="A16" t="s" s="740">
         <v>20</v>
       </c>
-      <c r="B13" t="n" s="744">
-        <v>0.7352727126245401</v>
-      </c>
-      <c r="C13" t="n" s="745">
-        <v>0.7431206653483629</v>
-      </c>
-      <c r="D13" t="n" s="746">
-        <v>0.8642502911673167</v>
-      </c>
-      <c r="E13" t="n" s="747">
-        <v>0.24324459257079914</v>
-      </c>
-      <c r="F13" t="n" s="748">
-        <v>2.8928783483347695</v>
-      </c>
-      <c r="G13" t="n" s="749">
-        <v>0.05062999594533921</v>
-      </c>
-      <c r="H13" t="n" s="750">
-        <v>0.04875929143413466</v>
-      </c>
-      <c r="I13" t="n" s="751">
+      <c r="B16" t="n" s="745">
+        <v>0.7293894553593634</v>
+      </c>
+      <c r="C16" t="n" s="746">
+        <v>0.7696323797808118</v>
+      </c>
+      <c r="D16" t="n" s="747">
+        <v>0.8778999529812802</v>
+      </c>
+      <c r="E16" t="n" s="748">
+        <v>0.2707169758833501</v>
+      </c>
+      <c r="F16" t="n" s="749">
+        <v>3.340887834186631</v>
+      </c>
+      <c r="G16" t="n" s="750">
+        <v>0.0479439135129858</v>
+      </c>
+      <c r="H16" t="n" s="751">
+        <v>0.06893390021515167</v>
+      </c>
+      <c r="I16" t="n" s="752">
+        <v>0.197052686872712</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="740">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="745">
+        <v>0.7519707923754755</v>
+      </c>
+      <c r="C17" t="n" s="746">
+        <v>0.793686893098831</v>
+      </c>
+      <c r="D17" t="n" s="747">
+        <v>0.8998112447719948</v>
+      </c>
+      <c r="E17" t="n" s="748">
+        <v>0.2994474398109115</v>
+      </c>
+      <c r="F17" t="n" s="749">
+        <v>3.8470017975107815</v>
+      </c>
+      <c r="G17" t="n" s="750">
+        <v>0.04390118749235568</v>
+      </c>
+      <c r="H17" t="n" s="751">
+        <v>0.07142982676755849</v>
+      </c>
+      <c r="I17" t="n" s="752">
+        <v>0.19864063888788908</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="740">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="745">
+        <v>0.740895295902883</v>
+      </c>
+      <c r="C18" t="n" s="746">
+        <v>0.7865630615212248</v>
+      </c>
+      <c r="D18" t="n" s="747">
+        <v>0.8909606069885857</v>
+      </c>
+      <c r="E18" t="n" s="748">
+        <v>0.2905131547758614</v>
+      </c>
+      <c r="F18" t="n" s="749">
+        <v>3.6852246247874434</v>
+      </c>
+      <c r="G18" t="n" s="750">
+        <v>0.0459209232004312</v>
+      </c>
+      <c r="H18" t="n" s="751">
+        <v>0.07344635941440071</v>
+      </c>
+      <c r="I18" t="n" s="752">
+        <v>0.1909902277357037</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="740">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="745">
+        <v>0.7159794262217943</v>
+      </c>
+      <c r="C19" t="n" s="746">
+        <v>0.7717151700564956</v>
+      </c>
+      <c r="D19" t="n" s="747">
+        <v>0.8735707155792696</v>
+      </c>
+      <c r="E19" t="n" s="748">
+        <v>0.2730499248226652</v>
+      </c>
+      <c r="F19" t="n" s="749">
+        <v>3.380492563818097</v>
+      </c>
+      <c r="G19" t="n" s="750">
+        <v>0.05102825140203573</v>
+      </c>
+      <c r="H19" t="n" s="751">
+        <v>0.06974318962220818</v>
+      </c>
+      <c r="I19" t="n" s="752">
+        <v>0.17367679621552154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="740">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="745">
+        <v>0.7182776870350426</v>
+      </c>
+      <c r="C20" t="n" s="746">
+        <v>0.7708468481639263</v>
+      </c>
+      <c r="D20" t="n" s="747">
+        <v>0.8725494111086599</v>
+      </c>
+      <c r="E20" t="n" s="748">
+        <v>0.2720739756823933</v>
+      </c>
+      <c r="F20" t="n" s="749">
+        <v>3.3638937190589364</v>
+      </c>
+      <c r="G20" t="n" s="750">
+        <v>0.050514567763553474</v>
+      </c>
+      <c r="H20" t="n" s="751">
+        <v>0.0703985952743781</v>
+      </c>
+      <c r="I20" t="n" s="752">
         <v>0.17944739517220681</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="739">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="744">
-        <v>0.7436579822523772</v>
-      </c>
-      <c r="C14" t="n" s="745">
-        <v>0.7478863605620595</v>
-      </c>
-      <c r="D14" t="n" s="746">
-        <v>0.8652958899472584</v>
-      </c>
-      <c r="E14" t="n" s="747">
-        <v>0.24789820704865237</v>
-      </c>
-      <c r="F14" t="n" s="748">
-        <v>2.9664652901342</v>
-      </c>
-      <c r="G14" t="n" s="749">
-        <v>0.04858450016606593</v>
-      </c>
-      <c r="H14" t="n" s="750">
-        <v>0.04575561128759518</v>
-      </c>
-      <c r="I14" t="n" s="751">
-        <v>0.17944739517220681</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="739">
-        <v>28</v>
-      </c>
-      <c r="B15" t="n" s="744">
-        <v>0.7316908924578167</v>
-      </c>
-      <c r="C15" t="n" s="745">
-        <v>0.7444625164498525</v>
-      </c>
-      <c r="D15" t="n" s="746">
-        <v>0.8678205025701673</v>
-      </c>
-      <c r="E15" t="n" s="747">
-        <v>0.24454309648570627</v>
-      </c>
-      <c r="F15" t="n" s="748">
-        <v>2.9133202147377215</v>
-      </c>
-      <c r="G15" t="n" s="749">
-        <v>0.051607359029262855</v>
-      </c>
-      <c r="H15" t="n" s="750">
-        <v>0.057456201783128866</v>
-      </c>
-      <c r="I15" t="n" s="751">
-        <v>0.17367679621552154</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="739">
-        <v>29</v>
-      </c>
-      <c r="B16" t="n" s="744">
-        <v>0.727089334724522</v>
-      </c>
-      <c r="C16" t="n" s="745">
-        <v>0.7390898998817641</v>
-      </c>
-      <c r="D16" t="n" s="746">
-        <v>0.8655308625234854</v>
-      </c>
-      <c r="E16" t="n" s="747">
-        <v>0.23939834033085697</v>
-      </c>
-      <c r="F16" t="n" s="748">
-        <v>2.8327377880228974</v>
-      </c>
-      <c r="G16" t="n" s="749">
-        <v>0.05249898172743616</v>
-      </c>
-      <c r="H16" t="n" s="750">
-        <v>0.05800565923112489</v>
-      </c>
-      <c r="I16" t="n" s="751">
-        <v>0.16729870271841019</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="739">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="744">
-        <v>0.733438687362628</v>
-      </c>
-      <c r="C17" t="n" s="745">
-        <v>0.7459622399278787</v>
-      </c>
-      <c r="D17" t="n" s="746">
-        <v>0.8384702798370791</v>
-      </c>
-      <c r="E17" t="n" s="747">
-        <v>0.24600525280975327</v>
-      </c>
-      <c r="F17" t="n" s="748">
-        <v>2.9364226787234298</v>
-      </c>
-      <c r="G17" t="n" s="749">
-        <v>0.050538184243145386</v>
-      </c>
-      <c r="H17" t="n" s="750">
-        <v>0.04622108709074018</v>
-      </c>
-      <c r="I17" t="n" s="751">
-        <v>0.17944739517220681</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="739">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="744">
-        <v>0.7374778200253485</v>
-      </c>
-      <c r="C18" t="n" s="745">
-        <v>0.749691488036765</v>
-      </c>
-      <c r="D18" t="n" s="746">
-        <v>0.842648177043118</v>
-      </c>
-      <c r="E18" t="n" s="747">
-        <v>0.24969174164047614</v>
-      </c>
-      <c r="F18" t="n" s="748">
-        <v>2.99506989257672</v>
-      </c>
-      <c r="G18" t="n" s="749">
-        <v>0.04981781355385273</v>
-      </c>
-      <c r="H18" t="n" s="750">
-        <v>0.04557065265008857</v>
-      </c>
-      <c r="I18" t="n" s="751">
-        <v>0.17944739517220681</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="739">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="744">
-        <v>0.7591667028647134</v>
-      </c>
-      <c r="C19" t="n" s="745">
-        <v>0.7667640150953332</v>
-      </c>
-      <c r="D19" t="n" s="746">
-        <v>0.895798985006912</v>
-      </c>
-      <c r="E19" t="n" s="747">
-        <v>0.2675485041303791</v>
-      </c>
-      <c r="F19" t="n" s="748">
-        <v>3.2875030643695125</v>
-      </c>
-      <c r="G19" t="n" s="749">
-        <v>0.04642042395457218</v>
-      </c>
-      <c r="H19" t="n" s="750">
-        <v>0.06032152470688052</v>
-      </c>
-      <c r="I19" t="n" s="751">
-        <v>0.2077746044236044</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="739">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="744">
-        <v>0.7538337727883013</v>
-      </c>
-      <c r="C20" t="n" s="745">
-        <v>0.7646117472645492</v>
-      </c>
-      <c r="D20" t="n" s="746">
-        <v>0.8887372042202465</v>
-      </c>
-      <c r="E20" t="n" s="747">
-        <v>0.2652041726738197</v>
-      </c>
-      <c r="F20" t="n" s="748">
-        <v>3.248300364945929</v>
-      </c>
-      <c r="G20" t="n" s="749">
-        <v>0.047436072309983354</v>
-      </c>
-      <c r="H20" t="n" s="750">
-        <v>0.059551357199097564</v>
-      </c>
-      <c r="I20" t="n" s="751">
-        <v>0.19154950073711224</v>
       </c>
     </row>
     <row r="21">
@@ -7690,292 +7873,292 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="755">
-        <v>30</v>
+      <c r="A23" t="s" s="756">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
-      <c r="B24" t="s" s="769">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="769">
+      <c r="B24" t="s" s="770">
         <v>32</v>
       </c>
-      <c r="D24" t="s" s="769">
+      <c r="C24" t="s" s="770">
         <v>33</v>
       </c>
-      <c r="E24" t="s" s="769">
+      <c r="D24" t="s" s="770">
         <v>34</v>
       </c>
-      <c r="F24" t="s" s="769">
+      <c r="E24" t="s" s="770">
         <v>35</v>
       </c>
-      <c r="G24" t="s" s="769">
+      <c r="F24" t="s" s="770">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s" s="770">
         <v>9</v>
       </c>
-      <c r="H24" t="s" s="769">
+      <c r="H24" t="s" s="770">
         <v>10</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="765">
+      <c r="A25" t="s" s="766">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n" s="771">
+        <v>66.0</v>
+      </c>
+      <c r="C25" t="n" s="772">
+        <v>0.6842279229516054</v>
+      </c>
+      <c r="D25" t="n" s="773">
+        <v>0.7096730368745996</v>
+      </c>
+      <c r="E25" t="n" s="774">
+        <v>0.745103988678845</v>
+      </c>
+      <c r="F25" t="n" s="775">
+        <v>0.6537906736775656</v>
+      </c>
+      <c r="G25" t="n" s="776">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="H25" t="n" s="777">
+        <v>0.34580401903450975</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="766">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="771">
+        <v>66.0</v>
+      </c>
+      <c r="C26" t="n" s="772">
+        <v>0.6997239182815262</v>
+      </c>
+      <c r="D26" t="n" s="773">
+        <v>0.7210400879356627</v>
+      </c>
+      <c r="E26" t="n" s="774">
+        <v>0.7572093321847233</v>
+      </c>
+      <c r="F26" t="n" s="775">
+        <v>0.5672085401000461</v>
+      </c>
+      <c r="G26" t="n" s="776">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="H26" t="n" s="777">
+        <v>1.3271418015062901</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="766">
+        <v>23</v>
+      </c>
+      <c r="B27" t="n" s="771">
+        <v>66.0</v>
+      </c>
+      <c r="C27" t="n" s="772">
+        <v>0.6882952989278818</v>
+      </c>
+      <c r="D27" t="n" s="773">
+        <v>0.7095489457077416</v>
+      </c>
+      <c r="E27" t="n" s="774">
+        <v>0.7420300008809274</v>
+      </c>
+      <c r="F27" t="n" s="775">
+        <v>0.5508490896441667</v>
+      </c>
+      <c r="G27" t="n" s="776">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="H27" t="n" s="777">
+        <v>1.3386839029713444</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="766">
         <v>18</v>
       </c>
-      <c r="B25" t="n" s="770">
+      <c r="B28" t="n" s="771">
         <v>66.0</v>
       </c>
-      <c r="C25" t="n" s="771">
-        <v>0.6435175101941089</v>
-      </c>
-      <c r="D25" t="n" s="772">
-        <v>0.6671804915773811</v>
-      </c>
-      <c r="E25" t="n" s="773">
-        <v>0.6348279852965435</v>
-      </c>
-      <c r="F25" t="n" s="774">
-        <v>0.5398416818606065</v>
-      </c>
-      <c r="G25" t="n" s="775">
+      <c r="C28" t="n" s="772">
+        <v>0.3429758742697886</v>
+      </c>
+      <c r="D28" t="n" s="773">
+        <v>0.46358849290362336</v>
+      </c>
+      <c r="E28" t="n" s="774">
+        <v>0.37405778433611087</v>
+      </c>
+      <c r="F28" t="n" s="775">
+        <v>0.3187952866380065</v>
+      </c>
+      <c r="G28" t="n" s="776">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="H28" t="n" s="777">
+        <v>0.1727334068350122</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="766">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="771">
+        <v>66.0</v>
+      </c>
+      <c r="C29" t="n" s="772">
+        <v>0.5743496097073818</v>
+      </c>
+      <c r="D29" t="n" s="773">
+        <v>0.6162367565508102</v>
+      </c>
+      <c r="E29" t="n" s="774">
+        <v>0.5838559340153373</v>
+      </c>
+      <c r="F29" t="n" s="775">
+        <v>0.4434307581765633</v>
+      </c>
+      <c r="G29" t="n" s="776">
         <v>3.242424242424242</v>
       </c>
-      <c r="H25" t="n" s="776">
+      <c r="H29" t="n" s="777">
         <v>1.0821716920598001</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="765">
-        <v>19</v>
-      </c>
-      <c r="B26" t="n" s="770">
+    <row r="30">
+      <c r="A30" t="s" s="766">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="771">
         <v>66.0</v>
       </c>
-      <c r="C26" t="n" s="771">
-        <v>0.6604683109967933</v>
-      </c>
-      <c r="D26" t="n" s="772">
-        <v>0.6840852531262184</v>
-      </c>
-      <c r="E26" t="n" s="773">
-        <v>0.6584434313732102</v>
-      </c>
-      <c r="F26" t="n" s="774">
-        <v>0.546713300505241</v>
-      </c>
-      <c r="G26" t="n" s="775">
+      <c r="C30" t="n" s="772">
+        <v>0.5539616543017216</v>
+      </c>
+      <c r="D30" t="n" s="773">
+        <v>0.5942261221738604</v>
+      </c>
+      <c r="E30" t="n" s="774">
+        <v>0.5580116932496398</v>
+      </c>
+      <c r="F30" t="n" s="775">
+        <v>0.4016115811206438</v>
+      </c>
+      <c r="G30" t="n" s="776">
         <v>3.6666666666666665</v>
       </c>
-      <c r="H26" t="n" s="776">
+      <c r="H30" t="n" s="777">
         <v>1.2068182366911169</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="765">
-        <v>20</v>
-      </c>
-      <c r="B27" t="n" s="770">
+    <row r="31">
+      <c r="A31" t="s" s="766">
+        <v>27</v>
+      </c>
+      <c r="B31" t="n" s="771">
         <v>66.0</v>
       </c>
-      <c r="C27" t="n" s="771">
-        <v>0.5526042493211071</v>
-      </c>
-      <c r="D27" t="n" s="772">
-        <v>0.5856002435946213</v>
-      </c>
-      <c r="E27" t="n" s="773">
-        <v>0.5703332878789298</v>
-      </c>
-      <c r="F27" t="n" s="774">
-        <v>0.4420586021669653</v>
-      </c>
-      <c r="G27" t="n" s="775">
-        <v>3.393939393939394</v>
-      </c>
-      <c r="H27" t="n" s="776">
-        <v>1.0058106241509936</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="765">
-        <v>21</v>
-      </c>
-      <c r="B28" t="n" s="770">
+      <c r="C31" t="n" s="772">
+        <v>0.48919279743321215</v>
+      </c>
+      <c r="D31" t="n" s="773">
+        <v>0.418056766897696</v>
+      </c>
+      <c r="E31" t="n" s="774">
+        <v>0.3172773697636812</v>
+      </c>
+      <c r="F31" t="n" s="775">
+        <v>0.28886631917871985</v>
+      </c>
+      <c r="G31" t="n" s="776">
+        <v>1.2272727272727273</v>
+      </c>
+      <c r="H31" t="n" s="777">
+        <v>1.4443039797819524</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="766">
+        <v>28</v>
+      </c>
+      <c r="B32" t="n" s="771">
         <v>66.0</v>
       </c>
-      <c r="C28" t="n" s="771">
-        <v>0.5315981256515412</v>
-      </c>
-      <c r="D28" t="n" s="772">
-        <v>0.5560562607953631</v>
-      </c>
-      <c r="E28" t="n" s="773">
-        <v>0.5395568835013851</v>
-      </c>
-      <c r="F28" t="n" s="774">
-        <v>0.37171273387178144</v>
-      </c>
-      <c r="G28" t="n" s="775">
-        <v>3.787878787878788</v>
-      </c>
-      <c r="H28" t="n" s="776">
-        <v>1.36455291652785</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="765">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n" s="770">
+      <c r="C32" t="n" s="772">
+        <v>0.5166832187426683</v>
+      </c>
+      <c r="D32" t="n" s="773">
+        <v>0.47283998371057706</v>
+      </c>
+      <c r="E32" t="n" s="774">
+        <v>0.39257403693922044</v>
+      </c>
+      <c r="F32" t="n" s="775">
+        <v>0.33818248683679875</v>
+      </c>
+      <c r="G32" t="n" s="776">
+        <v>1.9696969696969697</v>
+      </c>
+      <c r="H32" t="n" s="777">
+        <v>1.3355459496711386</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="766">
+        <v>29</v>
+      </c>
+      <c r="B33" t="n" s="771">
         <v>66.0</v>
       </c>
-      <c r="C29" t="n" s="771">
-        <v>0.5885500894537594</v>
-      </c>
-      <c r="D29" t="n" s="772">
-        <v>0.5773565488258866</v>
-      </c>
-      <c r="E29" t="n" s="773">
-        <v>0.5369668233330479</v>
-      </c>
-      <c r="F29" t="n" s="774">
-        <v>0.45168580033966027</v>
-      </c>
-      <c r="G29" t="n" s="775">
+      <c r="C33" t="n" s="772">
+        <v>0.6308061190401096</v>
+      </c>
+      <c r="D33" t="n" s="773">
+        <v>0.5799209542668051</v>
+      </c>
+      <c r="E33" t="n" s="774">
+        <v>0.5411582158347861</v>
+      </c>
+      <c r="F33" t="n" s="775">
+        <v>0.4863619940046203</v>
+      </c>
+      <c r="G33" t="n" s="776">
         <v>1.6515151515151516</v>
       </c>
-      <c r="H29" t="n" s="776">
+      <c r="H33" t="n" s="777">
         <v>1.270886114154811</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="765">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n" s="770">
+    <row r="34">
+      <c r="A34" t="s" s="766">
+        <v>30</v>
+      </c>
+      <c r="B34" t="n" s="771">
         <v>66.0</v>
       </c>
-      <c r="C30" t="n" s="771">
-        <v>0.6129468609805042</v>
-      </c>
-      <c r="D30" t="n" s="772">
-        <v>0.6100185985226554</v>
-      </c>
-      <c r="E30" t="n" s="773">
-        <v>0.57360247404582</v>
-      </c>
-      <c r="F30" t="n" s="774">
-        <v>0.4863585039401031</v>
-      </c>
-      <c r="G30" t="n" s="775">
+      <c r="C34" t="n" s="772">
+        <v>0.6154890126403727</v>
+      </c>
+      <c r="D34" t="n" s="773">
+        <v>0.5859052756915316</v>
+      </c>
+      <c r="E34" t="n" s="774">
+        <v>0.5491762618743372</v>
+      </c>
+      <c r="F34" t="n" s="775">
+        <v>0.47322055880028896</v>
+      </c>
+      <c r="G34" t="n" s="776">
         <v>1.4090909090909092</v>
       </c>
-      <c r="H30" t="n" s="776">
+      <c r="H34" t="n" s="777">
         <v>1.2275964349056276</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="765">
-        <v>22</v>
-      </c>
-      <c r="B31" t="n" s="770">
-        <v>66.0</v>
-      </c>
-      <c r="C31" t="n" s="771">
-        <v>0.5838910632075037</v>
-      </c>
-      <c r="D31" t="n" s="772">
-        <v>0.568073888757449</v>
-      </c>
-      <c r="E31" t="n" s="773">
-        <v>0.594094473203599</v>
-      </c>
-      <c r="F31" t="n" s="774">
-        <v>0.4390434147917562</v>
-      </c>
-      <c r="G31" t="n" s="775">
-        <v>0.5151515151515151</v>
-      </c>
-      <c r="H31" t="n" s="776">
-        <v>1.3271418015062901</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="765">
-        <v>23</v>
-      </c>
-      <c r="B32" t="n" s="770">
-        <v>66.0</v>
-      </c>
-      <c r="C32" t="n" s="771">
-        <v>0.5626477961783682</v>
-      </c>
-      <c r="D32" t="n" s="772">
-        <v>0.544669809385843</v>
-      </c>
-      <c r="E32" t="n" s="773">
-        <v>0.568884321982241</v>
-      </c>
-      <c r="F32" t="n" s="774">
-        <v>0.4120361016848321</v>
-      </c>
-      <c r="G32" t="n" s="775">
-        <v>0.5151515151515151</v>
-      </c>
-      <c r="H32" t="n" s="776">
-        <v>1.3386839029713444</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="765">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="770">
-        <v>66.0</v>
-      </c>
-      <c r="C33" t="n" s="771">
-        <v>0.460201126399261</v>
-      </c>
-      <c r="D33" t="n" s="772">
-        <v>0.4313041908192829</v>
-      </c>
-      <c r="E33" t="n" s="773">
-        <v>0.3229989583521638</v>
-      </c>
-      <c r="F33" t="n" s="774">
-        <v>0.2775541863097501</v>
-      </c>
-      <c r="G33" t="n" s="775">
-        <v>1.2272727272727273</v>
-      </c>
-      <c r="H33" t="n" s="776">
-        <v>1.4443039797819524</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="765">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="770">
-        <v>66.0</v>
-      </c>
-      <c r="C34" t="n" s="771">
-        <v>0.46589663675951554</v>
-      </c>
-      <c r="D34" t="n" s="772">
-        <v>0.4461874366399168</v>
-      </c>
-      <c r="E34" t="n" s="773">
-        <v>0.35659335439937506</v>
-      </c>
-      <c r="F34" t="n" s="774">
-        <v>0.2992739630414164</v>
-      </c>
-      <c r="G34" t="n" s="775">
-        <v>1.9696969696969697</v>
-      </c>
-      <c r="H34" t="n" s="776">
-        <v>1.3355459496711386</v>
       </c>
     </row>
     <row r="35">
@@ -7989,291 +8172,291 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="780">
-        <v>36</v>
+      <c r="A37" t="s" s="781">
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
-      <c r="B38" t="s" s="794">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="794">
+      <c r="B38" t="s" s="795">
         <v>38</v>
       </c>
-      <c r="D38" t="s" s="794">
+      <c r="C38" t="s" s="795">
         <v>39</v>
       </c>
-      <c r="E38" t="s" s="794">
+      <c r="D38" t="s" s="795">
         <v>40</v>
       </c>
-      <c r="F38" t="s" s="794">
+      <c r="E38" t="s" s="795">
         <v>41</v>
       </c>
-      <c r="G38" t="s" s="794">
+      <c r="F38" t="s" s="795">
         <v>42</v>
       </c>
-      <c r="H38" t="s" s="794">
+      <c r="G38" t="s" s="795">
         <v>43</v>
       </c>
+      <c r="H38" t="s" s="795">
+        <v>44</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="790">
+      <c r="A39" t="s" s="791">
+        <v>21</v>
+      </c>
+      <c r="B39" t="n" s="796">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="C39" t="n" s="797">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="D39" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="791">
+        <v>22</v>
+      </c>
+      <c r="B40" t="n" s="796">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="C40" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D40" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="799">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="F40" t="n" s="800">
+        <v>0.07575757575757576</v>
+      </c>
+      <c r="G40" t="n" s="801">
+        <v>0.015151515151515152</v>
+      </c>
+      <c r="H40" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="791">
+        <v>23</v>
+      </c>
+      <c r="B41" t="n" s="796">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="C41" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n" s="799">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="F41" t="n" s="800">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="G41" t="n" s="801">
+        <v>0.030303030303030304</v>
+      </c>
+      <c r="H41" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="791">
         <v>18</v>
       </c>
-      <c r="B39" t="n" s="795">
+      <c r="B42" t="n" s="796">
         <v>0.030303030303030304</v>
       </c>
-      <c r="C39" t="n" s="796">
+      <c r="C42" t="n" s="797">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="D42" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="791">
+        <v>19</v>
+      </c>
+      <c r="B43" t="n" s="796">
+        <v>0.030303030303030304</v>
+      </c>
+      <c r="C43" t="n" s="797">
         <v>0.07575757575757576</v>
       </c>
-      <c r="D39" t="n" s="797">
+      <c r="D43" t="n" s="798">
         <v>0.015151515151515152</v>
       </c>
-      <c r="E39" t="n" s="798">
+      <c r="E43" t="n" s="799">
         <v>0.4393939393939394</v>
       </c>
-      <c r="F39" t="n" s="799">
+      <c r="F43" t="n" s="800">
         <v>0.3787878787878788</v>
       </c>
-      <c r="G39" t="n" s="800">
+      <c r="G43" t="n" s="801">
         <v>0.06060606060606061</v>
       </c>
-      <c r="H39" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="790">
-        <v>19</v>
-      </c>
-      <c r="B40" t="n" s="795">
+      <c r="H43" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="791">
+        <v>20</v>
+      </c>
+      <c r="B44" t="n" s="796">
         <v>0.030303030303030304</v>
       </c>
-      <c r="C40" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n" s="797">
+      <c r="C44" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n" s="798">
         <v>0.07575757575757576</v>
       </c>
-      <c r="E40" t="n" s="798">
+      <c r="E44" t="n" s="799">
         <v>0.4090909090909091</v>
       </c>
-      <c r="F40" t="n" s="799">
+      <c r="F44" t="n" s="800">
         <v>0.13636363636363635</v>
       </c>
-      <c r="G40" t="n" s="800">
+      <c r="G44" t="n" s="801">
         <v>0.3484848484848485</v>
       </c>
-      <c r="H40" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="790">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n" s="795">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="C41" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D41" t="n" s="797">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="E41" t="n" s="798">
-        <v>0.4393939393939394</v>
-      </c>
-      <c r="F41" t="n" s="799">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="G41" t="n" s="800">
+      <c r="H44" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="791">
+        <v>27</v>
+      </c>
+      <c r="B45" t="n" s="796">
+        <v>0.5</v>
+      </c>
+      <c r="C45" t="n" s="797">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="D45" t="n" s="798">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="E45" t="n" s="799">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F45" t="n" s="800">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G45" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="791">
+        <v>28</v>
+      </c>
+      <c r="B46" t="n" s="796">
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="C46" t="n" s="797">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="D46" t="n" s="798">
+        <v>0.10606060606060606</v>
+      </c>
+      <c r="E46" t="n" s="799">
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="F46" t="n" s="800">
         <v>0.07575757575757576</v>
       </c>
-      <c r="H41" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="790">
-        <v>21</v>
-      </c>
-      <c r="B42" t="n" s="795">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="C42" t="n" s="796">
-        <v>0.015151515151515152</v>
-      </c>
-      <c r="D42" t="n" s="797">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="E42" t="n" s="798">
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="F42" t="n" s="799">
+      <c r="G46" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="791">
+        <v>29</v>
+      </c>
+      <c r="B47" t="n" s="796">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="C47" t="n" s="797">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="D47" t="n" s="798">
+        <v>0.3787878787878788</v>
+      </c>
+      <c r="E47" t="n" s="799">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="F47" t="n" s="800">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G47" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="791">
+        <v>30</v>
+      </c>
+      <c r="B48" t="n" s="796">
+        <v>0.3484848484848485</v>
+      </c>
+      <c r="C48" t="n" s="797">
+        <v>0.10606060606060606</v>
+      </c>
+      <c r="D48" t="n" s="798">
+        <v>0.3939393939393939</v>
+      </c>
+      <c r="E48" t="n" s="799">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="F48" t="n" s="800">
         <v>0.06060606060606061</v>
       </c>
-      <c r="G42" t="n" s="800">
-        <v>0.4696969696969697</v>
-      </c>
-      <c r="H42" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="790">
-        <v>28</v>
-      </c>
-      <c r="B43" t="n" s="795">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="C43" t="n" s="796">
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="D43" t="n" s="797">
-        <v>0.3787878787878788</v>
-      </c>
-      <c r="E43" t="n" s="798">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="F43" t="n" s="799">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="G43" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="790">
-        <v>29</v>
-      </c>
-      <c r="B44" t="n" s="795">
-        <v>0.3484848484848485</v>
-      </c>
-      <c r="C44" t="n" s="796">
-        <v>0.10606060606060606</v>
-      </c>
-      <c r="D44" t="n" s="797">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="E44" t="n" s="798">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="F44" t="n" s="799">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="G44" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="790">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="795">
-        <v>0.8636363636363636</v>
-      </c>
-      <c r="C45" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D45" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="798">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="F45" t="n" s="799">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="G45" t="n" s="800">
-        <v>0.015151515151515152</v>
-      </c>
-      <c r="H45" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="790">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="795">
-        <v>0.8636363636363636</v>
-      </c>
-      <c r="C46" t="n" s="796">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="798">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="F46" t="n" s="799">
-        <v>0.045454545454545456</v>
-      </c>
-      <c r="G46" t="n" s="800">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="H46" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="790">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="795">
-        <v>0.5</v>
-      </c>
-      <c r="C47" t="n" s="796">
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="D47" t="n" s="797">
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="E47" t="n" s="798">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F47" t="n" s="799">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="G47" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="790">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="795">
-        <v>0.21212121212121213</v>
-      </c>
-      <c r="C48" t="n" s="796">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="D48" t="n" s="797">
-        <v>0.10606060606060606</v>
-      </c>
-      <c r="E48" t="n" s="798">
-        <v>0.42424242424242425</v>
-      </c>
-      <c r="F48" t="n" s="799">
-        <v>0.07575757575757576</v>
-      </c>
-      <c r="G48" t="n" s="800">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="801">
+      <c r="G48" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="n" s="802">
         <v>0.0</v>
       </c>
     </row>
